--- a/tsfresh.xlsx
+++ b/tsfresh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yandex/Desktop/DLDF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF32993-5015-C546-8728-3933C9970D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71AC1E22-115F-FE4D-B4BD-19A21321840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="250">
   <si>
     <t>func_name</t>
   </si>
@@ -750,7 +750,34 @@
     <t>pd.Series.skew(x)</t>
   </si>
   <si>
-    <t>требуется серьёзно доработать текущий код/дописать дополнительные функции кроме тех, что наподобие percentile</t>
+    <t>UPD 04.05.2022</t>
+  </si>
+  <si>
+    <t>требуется серьёзно доработать текущий код/дописать дополнительные функции кроме тех, что наподобие percentile,  вычислительные сложности</t>
+  </si>
+  <si>
+    <t>doesnt fit</t>
+  </si>
+  <si>
+    <t>не посчиталось</t>
+  </si>
+  <si>
+    <t>не посчиталось, скорре всего -2</t>
+  </si>
+  <si>
+    <t>не посчиталось, видоизменил убрав m</t>
+  </si>
+  <si>
+    <t>не посчиталось, заменил min max на mean +- 3*std</t>
+  </si>
+  <si>
+    <t>pd.Series.kurtosis</t>
+  </si>
+  <si>
+    <t>не считал</t>
+  </si>
+  <si>
+    <t>don’t work with nan at all</t>
   </si>
 </sst>
 </file>
@@ -774,7 +801,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,6 +862,18 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -863,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -904,6 +943,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,13 +1042,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>409337</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>59551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1518464</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>370787</xdr:rowOff>
@@ -1022,7 +1070,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11278420" y="1064968"/>
+          <a:off x="12182237" y="1481951"/>
           <a:ext cx="1109127" cy="311236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1037,16 +1085,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1450540</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>57993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1737360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2893060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>363328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1065,8 +1113,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12984480" y="3555720"/>
-          <a:ext cx="1442520" cy="360360"/>
+          <a:off x="13375840" y="4934793"/>
+          <a:ext cx="1442520" cy="305335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,16 +1128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>380160</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1569320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>54697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1675080</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2746520</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>378664</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1108,8 +1156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13069800" y="3936600"/>
-          <a:ext cx="1294920" cy="340560"/>
+          <a:off x="13494620" y="5337897"/>
+          <a:ext cx="1177200" cy="323967"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,14 +1171,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381600</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1562700</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1498320</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2679420</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>582480</xdr:rowOff>
     </xdr:to>
@@ -1151,7 +1199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13071240" y="4637520"/>
+          <a:off x="13488000" y="6133080"/>
           <a:ext cx="1116720" cy="545400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1166,13 +1214,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>213840</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1879560</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>49320</xdr:rowOff>
@@ -1194,8 +1242,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12903480" y="7345440"/>
-          <a:ext cx="1665720" cy="476640"/>
+          <a:off x="11986740" y="9245520"/>
+          <a:ext cx="1665720" cy="557400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,16 +1257,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>362913</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>102378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1868040</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1796368</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>567502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1237,8 +1285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12980880" y="8368200"/>
-          <a:ext cx="1576800" cy="482040"/>
+          <a:off x="12288213" y="10465578"/>
+          <a:ext cx="1433455" cy="465124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1252,13 +1300,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>152640</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1950840</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>34560</xdr:rowOff>
@@ -1280,8 +1328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12842280" y="11559960"/>
-          <a:ext cx="1798200" cy="318960"/>
+          <a:off x="11925540" y="14294560"/>
+          <a:ext cx="1798200" cy="370400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1295,13 +1343,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>144720</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>47880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1825200</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>32040</xdr:rowOff>
@@ -1323,8 +1371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12834360" y="18411840"/>
-          <a:ext cx="1680480" cy="339120"/>
+          <a:off x="11917620" y="23009480"/>
+          <a:ext cx="1680480" cy="390560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1338,16 +1386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1536233</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>66993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1670760</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2657887</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>372328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1366,8 +1414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13003200" y="4274640"/>
-          <a:ext cx="1357200" cy="360360"/>
+          <a:off x="13461533" y="5756593"/>
+          <a:ext cx="1121654" cy="305335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1381,13 +1429,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>232920</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>25701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1863000</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>379853</xdr:rowOff>
@@ -1409,7 +1457,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11102003" y="628951"/>
+          <a:off x="12005820" y="1041701"/>
           <a:ext cx="1630080" cy="354152"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1424,16 +1472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251320</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>101817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1798920</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1849720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>547304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1452,8 +1500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12890160" y="2757600"/>
-          <a:ext cx="1598400" cy="458280"/>
+          <a:off x="12176620" y="4165817"/>
+          <a:ext cx="1598400" cy="445487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1765,11 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1778,12 +1825,13 @@
     <col min="3" max="3" width="45.1640625" customWidth="1"/>
     <col min="4" max="4" width="47.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="48.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1796,8 +1844,11 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1813,8 +1864,11 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1830,8 +1884,11 @@
       <c r="E3" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1847,8 +1904,11 @@
       <c r="E4" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="F4" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1864,8 +1924,11 @@
       <c r="E5" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1878,20 +1941,23 @@
       <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1907,15 +1973,18 @@
       <c r="E7" s="14">
         <v>-2</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="11">
+      <c r="F7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="11">
         <v>0</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1928,20 +1997,23 @@
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="H8" s="12">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1954,20 +2026,23 @@
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="H9" s="10">
-        <v>-2</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I9" s="10">
+        <v>-2</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1983,8 +2058,14 @@
       <c r="E10" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="F10" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1997,11 +2078,14 @@
       <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2014,11 +2098,14 @@
       <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F12" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2034,8 +2121,14 @@
       <c r="E13" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="F13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2051,8 +2144,14 @@
       <c r="E14" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2068,8 +2167,11 @@
       <c r="E15" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2085,8 +2187,11 @@
       <c r="E16" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2102,8 +2207,14 @@
       <c r="E17" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2119,8 +2230,11 @@
       <c r="E18" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2136,8 +2250,11 @@
       <c r="E19" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2150,11 +2267,14 @@
       <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E20" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F20" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2170,8 +2290,11 @@
       <c r="E21" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F21" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2184,11 +2307,14 @@
       <c r="D22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E22" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F22" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2204,8 +2330,11 @@
       <c r="E23" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F23" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2221,8 +2350,14 @@
       <c r="E24" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2238,8 +2373,14 @@
       <c r="E25" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2255,8 +2396,11 @@
       <c r="E26" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F26" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2269,11 +2413,14 @@
       <c r="D27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E27" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F27" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2289,8 +2436,14 @@
       <c r="E28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2306,8 +2459,14 @@
       <c r="E29" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2320,11 +2479,14 @@
       <c r="D30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2340,8 +2502,14 @@
       <c r="E31" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="E32" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="F32" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2374,8 +2545,14 @@
       <c r="E33" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2391,8 +2568,14 @@
       <c r="E34" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2408,8 +2591,14 @@
       <c r="E35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2425,8 +2614,14 @@
       <c r="E36" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2442,8 +2637,11 @@
       <c r="E37" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="F37" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2459,8 +2657,11 @@
       <c r="E38" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="F38" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2476,8 +2677,11 @@
       <c r="E39" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F39" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2493,8 +2697,11 @@
       <c r="E40" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2510,8 +2717,11 @@
       <c r="E41" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2527,8 +2737,11 @@
       <c r="E42" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F42" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2544,8 +2757,11 @@
       <c r="E43" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2561,8 +2777,11 @@
       <c r="E44" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2578,8 +2797,11 @@
       <c r="E45" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2595,8 +2817,11 @@
       <c r="E46" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2612,8 +2837,11 @@
       <c r="E47" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2629,8 +2857,11 @@
       <c r="E48" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2646,8 +2877,11 @@
       <c r="E49" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2663,8 +2897,11 @@
       <c r="E50" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2680,8 +2917,11 @@
       <c r="E51" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2697,8 +2937,14 @@
       <c r="E52" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2714,8 +2960,14 @@
       <c r="E53" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2731,8 +2983,11 @@
       <c r="E54" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F54" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2745,11 +3000,14 @@
       <c r="D55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E55" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E55" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F55" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2765,8 +3023,14 @@
       <c r="E56" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F56" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2782,8 +3046,14 @@
       <c r="E57" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2799,8 +3069,11 @@
       <c r="E58" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2816,8 +3089,11 @@
       <c r="E59" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2833,8 +3109,14 @@
       <c r="E60" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="F60" s="6">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2850,8 +3132,11 @@
       <c r="E61" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F61" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2867,8 +3152,14 @@
       <c r="E62" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F62" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2884,8 +3175,14 @@
       <c r="E63" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2901,8 +3198,11 @@
       <c r="E64" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F64" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2918,8 +3218,11 @@
       <c r="E65" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="F65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2935,11 +3238,14 @@
       <c r="E66" s="13">
         <v>-1</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="8">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2955,8 +3261,11 @@
       <c r="E67" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2972,8 +3281,11 @@
       <c r="E68" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2989,8 +3301,11 @@
       <c r="E69" s="14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F69" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3006,8 +3321,14 @@
       <c r="E70" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F70" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3023,8 +3344,14 @@
       <c r="E71" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F71" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3040,8 +3367,11 @@
       <c r="E72" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3057,8 +3387,11 @@
       <c r="E73" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3074,8 +3407,14 @@
       <c r="E74" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F74" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3088,11 +3427,14 @@
       <c r="D75" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E75" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E75" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F75" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3108,8 +3450,11 @@
       <c r="E76" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3125,8 +3470,11 @@
       <c r="E77" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3139,18 +3487,15 @@
       <c r="D78" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E78" s="15">
-        <v>0</v>
+      <c r="E78" s="13">
+        <v>-1</v>
+      </c>
+      <c r="F78" s="19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E78" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="E1:E78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
